--- a/biology/Histoire de la zoologie et de la botanique/Edwin_Ray_Lankester/Edwin_Ray_Lankester.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Edwin_Ray_Lankester/Edwin_Ray_Lankester.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edwin Ray Lankester est un zoologiste britannique, né le 15 mai 1847 à Londres et mort le 15 août 1929 dans cette même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père est le médecin et naturaliste Edwin Lankester (1814-1874). Il commence ses études à Downing College de Cambridge de 1864 à 1866 puis au Christ Church d’Oxford de 1866 à 1868. Il obtient, à Oxford et successivement, son Master of Arts, son Doctor of Laws et son Doctor of Science.
 En 1872, il devient maître-assistant au collège d'Exeter, puis enseigne la zoologie et l’anatomie comparée à l’University College de Londres de 1874 à 1890. Il est nommé professeur à l'université d'Édimbourg en 1882, titulaire de la chaire Linacre d'anatomie comparée à Oxford de 1891 à 1898. Il dirige, de 1898 à 1907 le département d’histoire naturelle du British Museum.
